--- a/images/DCAATFEntry2018.xlsx
+++ b/images/DCAATFEntry2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleev_000\Desktop\Athletics Files\Track &amp; Field\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmco\Documents\GitHub\devoncountyaa\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B46817-4327-4028-874D-9C5C9319219F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="11325" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TIMETABLE" sheetId="11" r:id="rId1"/>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -783,7 +784,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,6 +875,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -909,6 +927,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2081,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2808,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
